--- a/SM_CW_QN_1.xlsx
+++ b/SM_CW_QN_1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/school work/MODELING_AND_SIMULATION/SM_CW-QN1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F153146C-EE9C-8B48-8BA0-A00EC3DD638C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F7DF1-3FDD-3040-B143-A053E9AB49B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{3E74D5EA-1636-2045-B02C-46501E7B9642}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{3E74D5EA-1636-2045-B02C-46501E7B9642}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop Simulation" sheetId="1" r:id="rId1"/>
     <sheet name="Replicate" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,6 +148,1994 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Replicate!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Customer Time in System (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Replicate!$B$2:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFF1-2749-896D-2B7F267B71E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="18316335"/>
+        <c:axId val="18580479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="18316335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18580479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="18580479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18316335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Replicate!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proportion (%) of time server idle (1-p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Replicate!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="1">
+                  <c:v>0.57777777777777772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2722222222222222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.31111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42777777777777776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.58888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.50555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67222222222222228</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.37222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.53888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.31111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.48333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13E2-234B-8271-9FBBF3A6D898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="32389999"/>
+        <c:axId val="38155151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="32389999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38155151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38155151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32389999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97CA5A3-3714-704A-B300-A081728A6757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BF35EB-C46C-CB4C-9C9B-9E8E59D2E224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5262A0F6-F70D-294D-93CA-D9309032AF85}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -499,22 +2487,22 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <f ca="1">B2+D2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <f ca="1">F2-B2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -526,11 +2514,11 @@
       </c>
       <c r="B3">
         <f ca="1">B2+C2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D21" ca="1" si="0">RANDBETWEEN(1,8)</f>
@@ -538,11 +2526,11 @@
       </c>
       <c r="E3">
         <f ca="1">MAX(F2,B3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f ca="1">E3+D3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" ca="1" si="1">F3-B3</f>
@@ -557,7 +2545,7 @@
       </c>
       <c r="K3">
         <f ca="1">AVERAGE(G2:G21)</f>
-        <v>5.65</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -566,38 +2554,38 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B21" ca="1" si="2">B3+C3</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C21" ca="1" si="3">RANDBETWEEN(1,15)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E21" ca="1" si="4">MAX(F3,B4)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F21" ca="1" si="5">E4+D4</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H21" ca="1" si="6">MAX(0,(E4-F3))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="2">
         <f ca="1">SUM(H2:H21)/(3*60)</f>
-        <v>0.41666666666666669</v>
+        <v>0.57777777777777772</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -606,31 +2594,31 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -639,31 +2627,31 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -672,31 +2660,31 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -705,31 +2693,31 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -738,11 +2726,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
@@ -758,11 +2746,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -771,31 +2759,31 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -804,31 +2792,31 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -837,31 +2825,31 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -870,31 +2858,31 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -903,31 +2891,31 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -936,11 +2924,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
@@ -948,11 +2936,11 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
@@ -960,7 +2948,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -969,31 +2957,31 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,11 +2990,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
@@ -1014,11 +3002,11 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
@@ -1026,7 +3014,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,11 +3023,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
@@ -1047,11 +3035,11 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
@@ -1059,7 +3047,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1068,31 +3056,31 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1101,31 +3089,31 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1134,31 +3122,31 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1170,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709F6A44-8B9D-AB4B-A5D0-0F6255D0E927}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,11 +3187,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <f ca="1">'Shop Simulation'!K3</f>
-        <v>5.65</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">'Shop Simulation'!K4</f>
-        <v>0.41666666666666669</v>
+        <v>0.57777777777777772</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,14 +3200,14 @@
       </c>
       <c r="B4">
         <f t="dataTable" ref="B4:B53" dt2D="0" dtr="0" r1="B2" ca="1"/>
-        <v>4.95</v>
+        <v>7.45</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="2">
         <f t="dataTable" ref="E4:E53" dt2D="0" dtr="0" r1="E2" ca="1"/>
-        <v>0.47222222222222221</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1227,13 +3215,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>0.42222222222222222</v>
+        <v>0.24444444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1241,13 +3229,13 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>6.45</v>
+        <v>5.35</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <v>0.3888888888888889</v>
+        <v>0.45555555555555555</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,13 +3243,13 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>4.4000000000000004</v>
+        <v>6.65</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>0.56666666666666665</v>
+        <v>0.34444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,13 +3257,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>4.55</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>0.2722222222222222</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1283,13 +3271,13 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>5.8</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" s="2">
-        <v>0.27777777777777779</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1297,13 +3285,13 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>5.8</v>
+        <v>4.55</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" s="2">
-        <v>0.23333333333333334</v>
+        <v>0.53888888888888886</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1311,13 +3299,13 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>6.85</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" s="2">
-        <v>0.18888888888888888</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,13 +3313,13 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="D12">
         <v>9</v>
       </c>
       <c r="E12" s="2">
-        <v>0.2722222222222222</v>
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,13 +3327,13 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.34444444444444444</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1353,13 +3341,13 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>5.85</v>
+        <v>5.45</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" s="2">
-        <v>0.3</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1367,13 +3355,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>8.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.2722222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1381,13 +3369,13 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>4.3</v>
+        <v>5.95</v>
       </c>
       <c r="D16">
         <v>13</v>
       </c>
       <c r="E16" s="2">
-        <v>0.38333333333333336</v>
+        <v>0.51666666666666672</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,13 +3383,13 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>5.75</v>
+        <v>5.65</v>
       </c>
       <c r="D17">
         <v>14</v>
       </c>
       <c r="E17" s="2">
-        <v>0.25</v>
+        <v>0.31111111111111112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1409,13 +3397,13 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>4.05</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" s="2">
-        <v>0.32222222222222224</v>
+        <v>0.42777777777777776</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1423,13 +3411,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>6.25</v>
+        <v>5.7</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1437,13 +3425,13 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="D20">
         <v>17</v>
       </c>
       <c r="E20" s="2">
-        <v>0.18333333333333332</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,13 +3439,13 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>4.6500000000000004</v>
+        <v>6.35</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.33888888888888891</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1465,13 +3453,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>5.85</v>
       </c>
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1479,13 +3467,13 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23" s="2">
-        <v>0.48888888888888887</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1493,13 +3481,13 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>6.35</v>
+        <v>4.75</v>
       </c>
       <c r="D24">
         <v>21</v>
       </c>
       <c r="E24" s="2">
-        <v>0.27777777777777779</v>
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1507,13 +3495,13 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>5.4</v>
+        <v>6.75</v>
       </c>
       <c r="D25">
         <v>22</v>
       </c>
       <c r="E25" s="2">
-        <v>0.35555555555555557</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1521,13 +3509,13 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>5.9</v>
+        <v>6.95</v>
       </c>
       <c r="D26">
         <v>23</v>
       </c>
       <c r="E26" s="2">
-        <v>0.3888888888888889</v>
+        <v>0.66111111111111109</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1535,13 +3523,13 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="D27">
         <v>24</v>
       </c>
       <c r="E27" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1549,13 +3537,13 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>6.05</v>
+        <v>7.35</v>
       </c>
       <c r="D28">
         <v>25</v>
       </c>
       <c r="E28" s="2">
-        <v>0.42222222222222222</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1563,13 +3551,13 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="D29">
         <v>26</v>
       </c>
       <c r="E29" s="2">
-        <v>0.45555555555555555</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1577,13 +3565,13 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>8.85</v>
+        <v>5.9</v>
       </c>
       <c r="D30">
         <v>27</v>
       </c>
       <c r="E30" s="2">
-        <v>0.29444444444444445</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1591,13 +3579,13 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>6.6</v>
+        <v>5.25</v>
       </c>
       <c r="D31">
         <v>28</v>
       </c>
       <c r="E31" s="2">
-        <v>0.48333333333333334</v>
+        <v>0.58888888888888891</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1605,13 +3593,13 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>5.5</v>
+        <v>4.45</v>
       </c>
       <c r="D32">
         <v>29</v>
       </c>
       <c r="E32" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1619,13 +3607,13 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>5.3</v>
+        <v>5.15</v>
       </c>
       <c r="D33">
         <v>30</v>
       </c>
       <c r="E33" s="2">
-        <v>0.45</v>
+        <v>0.50555555555555554</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1633,13 +3621,13 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>6.15</v>
+        <v>5.5</v>
       </c>
       <c r="D34">
         <v>31</v>
       </c>
       <c r="E34" s="2">
-        <v>0.46111111111111114</v>
+        <v>0.41111111111111109</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1647,13 +3635,13 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="D35">
         <v>32</v>
       </c>
       <c r="E35" s="2">
-        <v>0.39444444444444443</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1661,13 +3649,13 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="D36">
         <v>33</v>
       </c>
       <c r="E36" s="2">
-        <v>0.6166666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1675,13 +3663,13 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="D37">
         <v>34</v>
       </c>
       <c r="E37" s="2">
-        <v>0.41111111111111109</v>
+        <v>0.31111111111111112</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1689,13 +3677,13 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>4.1500000000000004</v>
+        <v>5.8</v>
       </c>
       <c r="D38">
         <v>35</v>
       </c>
       <c r="E38" s="2">
-        <v>0.39444444444444443</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1703,13 +3691,13 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>5.4</v>
+        <v>5.25</v>
       </c>
       <c r="D39">
         <v>36</v>
       </c>
       <c r="E39" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.67222222222222228</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1717,13 +3705,13 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>5.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D40">
         <v>37</v>
       </c>
       <c r="E40" s="2">
-        <v>0.17222222222222222</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1731,13 +3719,13 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="D41">
         <v>38</v>
       </c>
       <c r="E41" s="2">
-        <v>0.3611111111111111</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1745,13 +3733,13 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>9.9</v>
       </c>
       <c r="D42">
         <v>39</v>
       </c>
       <c r="E42" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1759,13 +3747,13 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <v>4.3499999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="D43">
         <v>40</v>
       </c>
       <c r="E43" s="2">
-        <v>0.41111111111111109</v>
+        <v>0.51111111111111107</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1773,13 +3761,13 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <v>6.75</v>
+        <v>5.55</v>
       </c>
       <c r="D44">
         <v>41</v>
       </c>
       <c r="E44" s="2">
-        <v>0.46666666666666667</v>
+        <v>0.37222222222222223</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1787,13 +3775,13 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>6.75</v>
+        <v>5.15</v>
       </c>
       <c r="D45">
         <v>42</v>
       </c>
       <c r="E45" s="2">
-        <v>0.31111111111111112</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1801,13 +3789,13 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>4.95</v>
+        <v>5.8</v>
       </c>
       <c r="D46">
         <v>43</v>
       </c>
       <c r="E46" s="2">
-        <v>0.31666666666666665</v>
+        <v>0.43888888888888888</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1815,13 +3803,13 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="D47">
         <v>44</v>
       </c>
       <c r="E47" s="2">
-        <v>0.20555555555555555</v>
+        <v>0.53888888888888886</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1829,13 +3817,13 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="D48">
         <v>45</v>
       </c>
       <c r="E48" s="2">
-        <v>0.37222222222222223</v>
+        <v>0.31111111111111112</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1843,13 +3831,13 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <v>5.45</v>
+        <v>4.3</v>
       </c>
       <c r="D49">
         <v>46</v>
       </c>
       <c r="E49" s="2">
-        <v>0.5</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1857,13 +3845,13 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="D50">
         <v>47</v>
       </c>
       <c r="E50" s="2">
-        <v>0.43888888888888888</v>
+        <v>0.50555555555555554</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1871,13 +3859,13 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D51">
         <v>48</v>
       </c>
       <c r="E51" s="2">
-        <v>0.47222222222222221</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1885,13 +3873,13 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <v>5.85</v>
+        <v>5.65</v>
       </c>
       <c r="D52">
         <v>49</v>
       </c>
       <c r="E52" s="2">
-        <v>0.28888888888888886</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,16 +3887,17 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <v>4.2</v>
+        <v>5.35</v>
       </c>
       <c r="D53">
         <v>50</v>
       </c>
       <c r="E53" s="2">
-        <v>0.40555555555555556</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>